--- a/Excel_file.xlsx
+++ b/Excel_file.xlsx
@@ -1,25 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1С\Обучение\1C_ITSolution_Ed\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4787F6E8-49E4-4D24-BEF2-482D5BBED6D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2985" yWindow="2940" windowWidth="13620" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Мыло" sheetId="5" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
+    <sheet name="Нафталин" sheetId="4" r:id="rId3"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId4"/>
+    <sheet name="Парафин" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="11">
+  <si>
+    <t>Товары</t>
+  </si>
+  <si>
+    <t>Кол-во</t>
+  </si>
+  <si>
+    <t>ед.изм</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>валюта</t>
+  </si>
+  <si>
+    <t>Стоимость</t>
+  </si>
+  <si>
+    <t>Парафин</t>
+  </si>
+  <si>
+    <t>кг</t>
+  </si>
+  <si>
+    <t>руб.</t>
+  </si>
+  <si>
+    <t>Мыло</t>
+  </si>
+  <si>
+    <t>Нафталин</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +384,5755 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D89DE6-8F40-487E-BDA1-1005FD53314D}">
+  <dimension ref="A1:G79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="G80" sqref="A80:G80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <f>D2*B2</f>
+        <v>336</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">D3*B3</f>
+        <v>336</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>24</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>24</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51">
+        <v>24</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>24</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>24</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>24</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>24</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57">
+        <v>24</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>24</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59">
+        <v>24</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>24</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>24</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>24</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63">
+        <v>24</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64">
+        <v>24</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65">
+        <v>24</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>24</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="G66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67">
+        <v>24</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F79" si="1">D67*B67</f>
+        <v>336</v>
+      </c>
+      <c r="G67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>24</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="G68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69">
+        <v>24</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="G69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70">
+        <v>24</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="G70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71">
+        <v>24</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="G71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72">
+        <v>24</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="G72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>24</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="G73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <v>24</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="G74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>24</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="G75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>24</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="G76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>24</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="G77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>24</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="G78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79">
+        <v>24</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="G79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266DF410-BFFD-4363-B90F-6094E1E4C0F2}">
+  <dimension ref="A1:G79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>164</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <f>D2*B2</f>
+        <v>656</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>164</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">D3*B3</f>
+        <v>656</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>164</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>164</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>164</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>164</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>164</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>164</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>164</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>164</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>164</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>164</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>164</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>164</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>164</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>164</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>164</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>164</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>164</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>164</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>164</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>164</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>164</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>164</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>164</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>164</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>164</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>164</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>164</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>164</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>164</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>164</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>164</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>164</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>164</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>164</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>164</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>164</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>164</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>164</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>164</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>164</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>164</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>164</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>164</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>164</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>164</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>164</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>164</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51">
+        <v>164</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>164</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>164</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>164</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>164</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>164</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57">
+        <v>164</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>164</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59">
+        <v>164</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>164</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>164</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>164</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63">
+        <v>164</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64">
+        <v>164</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65">
+        <v>164</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>164</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="G66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67">
+        <v>164</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F79" si="1">D67*B67</f>
+        <v>656</v>
+      </c>
+      <c r="G67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>164</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>656</v>
+      </c>
+      <c r="G68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69">
+        <v>164</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>656</v>
+      </c>
+      <c r="G69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70">
+        <v>164</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>656</v>
+      </c>
+      <c r="G70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71">
+        <v>164</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>656</v>
+      </c>
+      <c r="G71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72">
+        <v>164</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>656</v>
+      </c>
+      <c r="G72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>164</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>656</v>
+      </c>
+      <c r="G73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <v>164</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>656</v>
+      </c>
+      <c r="G74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>164</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>656</v>
+      </c>
+      <c r="G75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>164</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>656</v>
+      </c>
+      <c r="G76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>164</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>656</v>
+      </c>
+      <c r="G77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>164</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>656</v>
+      </c>
+      <c r="G78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79">
+        <v>164</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>656</v>
+      </c>
+      <c r="G79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A98A11-3EDE-45CD-A79C-3150BA3AF7CA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACAED63-63B4-4044-B768-117A55112275}">
+  <dimension ref="A1:G79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="G80" sqref="A80:G80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <f>D2*B2</f>
+        <v>4000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">D3*B3</f>
+        <v>4000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>200</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>200</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>200</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>200</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>200</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>200</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>200</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>200</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>200</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>200</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>200</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>200</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>200</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>200</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>200</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>200</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>200</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>200</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>200</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>200</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>200</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>200</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>200</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>200</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>200</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>200</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>200</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>200</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>200</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>200</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>200</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51">
+        <v>200</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>200</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>20</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>200</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>200</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>20</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>200</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>20</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>200</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57">
+        <v>200</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>200</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59">
+        <v>200</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>200</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>20</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>200</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>20</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>200</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>20</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63">
+        <v>200</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>20</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64">
+        <v>200</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>20</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65">
+        <v>200</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>20</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>200</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67">
+        <v>20</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67">
+        <v>200</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F79" si="1">D67*B67</f>
+        <v>4000</v>
+      </c>
+      <c r="G67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68">
+        <v>20</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>200</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="G68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>20</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69">
+        <v>200</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="G69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>20</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70">
+        <v>200</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="G70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71">
+        <v>20</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71">
+        <v>200</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="G71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>20</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72">
+        <v>200</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="G72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73">
+        <v>20</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>200</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="G73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74">
+        <v>20</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <v>200</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="G74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75">
+        <v>20</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>200</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="G75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76">
+        <v>20</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>200</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="G76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77">
+        <v>20</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>200</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="G77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78">
+        <v>20</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>200</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="G78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <v>20</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79">
+        <v>200</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="G79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>